--- a/Lab4-Controlo/Jitter/Timing Control Arduino Uno.xlsx
+++ b/Lab4-Controlo/Jitter/Timing Control Arduino Uno.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab4\Jitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab4-Controlo\Jitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D95AF8-01FF-408A-A5A5-D8400A70BC44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA3E6F-15DD-4E44-81AF-6B4A59DE20F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{49BD4488-E2DC-45BE-96B9-274409FE058C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">For Serial Communication </t>
   </si>
   <si>
-    <t>~50 us per character</t>
+    <t>~70 us per character</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D6720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
